--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>random</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>0.40(0.01)</t>
+  </si>
+  <si>
+    <t>0.38(0.03)</t>
+  </si>
+  <si>
+    <t>SIS (barabasi,L=100)</t>
+  </si>
+  <si>
+    <t>0.45(0.01)</t>
+  </si>
+  <si>
+    <t>0.46(0.01)</t>
+  </si>
+  <si>
+    <t>0.24(0.02)</t>
   </si>
 </sst>
 </file>
@@ -467,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +522,9 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
       <c r="D3" t="s">
         <v>15</v>
       </c>
@@ -587,6 +605,63 @@
       </c>
       <c r="G6" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>random</t>
   </si>
@@ -40,15 +40,9 @@
     <t>0.31(0.03)</t>
   </si>
   <si>
-    <t>0.46(0.02)</t>
-  </si>
-  <si>
     <t>0.42(0.01)</t>
   </si>
   <si>
-    <t>0.38(0.01)</t>
-  </si>
-  <si>
     <t>0.47(0.01)</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
     <t>0.04(0.01)</t>
   </si>
   <si>
-    <t>0.29(0.02)</t>
-  </si>
-  <si>
     <t>0.39(0.02)</t>
   </si>
   <si>
@@ -104,6 +95,33 @@
   </si>
   <si>
     <t>0.24(0.02)</t>
+  </si>
+  <si>
+    <t>0.03(0.01)</t>
+  </si>
+  <si>
+    <t>0.40(0.02)</t>
+  </si>
+  <si>
+    <t>0.43(0.01)</t>
+  </si>
+  <si>
+    <t>Ebola</t>
+  </si>
+  <si>
+    <t>0.17(0.01)</t>
+  </si>
+  <si>
+    <t>0.21(0.005)</t>
+  </si>
+  <si>
+    <t>0.16(0.004)</t>
+  </si>
+  <si>
+    <t>0.36(0.003)</t>
+  </si>
+  <si>
+    <t>0.45(0.02)</t>
   </si>
 </sst>
 </file>
@@ -482,17 +500,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -520,22 +538,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -543,13 +561,13 @@
         <v>0.5</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -558,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,22 +584,22 @@
         <v>0.75</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -589,27 +607,27 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -637,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,7 +663,7 @@
         <v>0.5</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,7 +671,7 @@
         <v>0.75</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -661,7 +679,46 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>random</t>
   </si>
@@ -122,6 +122,33 @@
   </si>
   <si>
     <t>0.45(0.02)</t>
+  </si>
+  <si>
+    <t>stacked</t>
+  </si>
+  <si>
+    <t>0.27(0.01)</t>
+  </si>
+  <si>
+    <t>0.18(0.01)</t>
+  </si>
+  <si>
+    <t>SIS (nn,L=100)</t>
+  </si>
+  <si>
+    <t>0.18(0.02)</t>
+  </si>
+  <si>
+    <t>0.54(0.01)</t>
+  </si>
+  <si>
+    <t>0.17(0.005)</t>
+  </si>
+  <si>
+    <t>mb myopic</t>
+  </si>
+  <si>
+    <t>0.37(0.004)</t>
   </si>
 </sst>
 </file>
@@ -500,20 +527,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -527,13 +554,19 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -550,13 +583,19 @@
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -573,13 +612,16 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -599,10 +641,13 @@
         <v>15</v>
       </c>
       <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -619,18 +664,21 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -644,13 +692,16 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>4</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -658,7 +709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -666,7 +717,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
@@ -674,7 +725,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -682,12 +733,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -701,13 +752,19 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -717,8 +774,74 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
       <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
         <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>random</t>
   </si>
@@ -136,12 +136,6 @@
     <t>SIS (nn,L=100)</t>
   </si>
   <si>
-    <t>0.18(0.02)</t>
-  </si>
-  <si>
-    <t>0.54(0.01)</t>
-  </si>
-  <si>
     <t>0.17(0.005)</t>
   </si>
   <si>
@@ -149,6 +143,45 @@
   </si>
   <si>
     <t>0.37(0.004)</t>
+  </si>
+  <si>
+    <t>mf two step</t>
+  </si>
+  <si>
+    <t>0.36(0.024)</t>
+  </si>
+  <si>
+    <t>0.26(0.024)</t>
+  </si>
+  <si>
+    <t>0.57(0.01)</t>
+  </si>
+  <si>
+    <t>0.57(0.012)</t>
+  </si>
+  <si>
+    <t>0.63(0.012)</t>
+  </si>
+  <si>
+    <t>0.66(0.009)</t>
+  </si>
+  <si>
+    <t>0.69(0.013)</t>
+  </si>
+  <si>
+    <t>0.73(0.009)</t>
+  </si>
+  <si>
+    <t>0.51(0.012)</t>
+  </si>
+  <si>
+    <t>0.58(0.011)</t>
+  </si>
+  <si>
+    <t>0.62(0.011)</t>
+  </si>
+  <si>
+    <t>0.76(0.008)</t>
   </si>
 </sst>
 </file>
@@ -529,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +596,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -761,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -775,7 +808,7 @@
         <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -787,7 +820,7 @@
         <v>33</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -817,31 +850,64 @@
       <c r="H21" t="s">
         <v>5</v>
       </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="I22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>random</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>0.76(0.008)</t>
+  </si>
+  <si>
+    <t>0.03(0.006)</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,6 +867,9 @@
       <c r="C22" t="s">
         <v>44</v>
       </c>
+      <c r="D22" t="s">
+        <v>56</v>
+      </c>
       <c r="I22" t="s">
         <v>45</v>
       </c>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>random</t>
   </si>
@@ -185,6 +185,30 @@
   </si>
   <si>
     <t>0.03(0.006)</t>
+  </si>
+  <si>
+    <t>mb two step</t>
+  </si>
+  <si>
+    <t>0.20(0.026)</t>
+  </si>
+  <si>
+    <t>0.59(0.009)</t>
+  </si>
+  <si>
+    <t>0.61(0.009)</t>
+  </si>
+  <si>
+    <t>0.63(0.011)</t>
+  </si>
+  <si>
+    <t>0.60(0.010)</t>
+  </si>
+  <si>
+    <t>0.75(0.009)</t>
+  </si>
+  <si>
+    <t>0.75(0.010)</t>
   </si>
 </sst>
 </file>
@@ -563,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +824,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -826,12 +850,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -856,8 +880,11 @@
       <c r="I21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -873,8 +900,11 @@
       <c r="I22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -884,11 +914,17 @@
       <c r="C23" t="s">
         <v>46</v>
       </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
       <c r="I23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -898,11 +934,17 @@
       <c r="C24" t="s">
         <v>48</v>
       </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -912,8 +954,14 @@
       <c r="C25" t="s">
         <v>50</v>
       </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
       <c r="I25" t="s">
         <v>51</v>
+      </c>
+      <c r="J25" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>random</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>0.75(0.010)</t>
+  </si>
+  <si>
+    <t>0.35(0.02)</t>
+  </si>
+  <si>
+    <t>mf two step prefit (1e5 on lattice data)</t>
+  </si>
+  <si>
+    <t>0.45(0.012)</t>
   </si>
 </sst>
 </file>
@@ -587,20 +596,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -625,8 +634,14 @@
       <c r="I2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -654,8 +669,14 @@
       <c r="I3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -681,7 +702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -707,7 +728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -733,12 +754,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -761,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -769,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -777,7 +798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
@@ -785,7 +806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -793,12 +814,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -824,7 +845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -850,12 +871,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -883,8 +904,11 @@
       <c r="J21" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -904,7 +928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -924,7 +948,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -944,7 +968,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>random</t>
   </si>
@@ -218,6 +218,21 @@
   </si>
   <si>
     <t>0.45(0.012)</t>
+  </si>
+  <si>
+    <t>0.45(0.010)</t>
+  </si>
+  <si>
+    <t>0.43(0.013)</t>
+  </si>
+  <si>
+    <t>0.37(0.001)</t>
+  </si>
+  <si>
+    <t>0.43(0.014)</t>
+  </si>
+  <si>
+    <t>0.46(0.016)</t>
   </si>
 </sst>
 </file>
@@ -596,20 +611,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="74.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -640,8 +658,11 @@
       <c r="K2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -675,8 +696,11 @@
       <c r="K3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -701,8 +725,14 @@
       <c r="H4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -727,8 +757,11 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -753,13 +786,16 @@
       <c r="H6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -782,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -790,7 +826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -798,7 +834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
@@ -806,7 +842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -814,12 +850,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
   <si>
     <t>random</t>
   </si>
@@ -233,6 +233,57 @@
   </si>
   <si>
     <t>0.46(0.016)</t>
+  </si>
+  <si>
+    <t>0.035(.005)</t>
+  </si>
+  <si>
+    <t>0.50(0.012)</t>
+  </si>
+  <si>
+    <t>0.59(0.012)</t>
+  </si>
+  <si>
+    <t>0.74(0.013)</t>
+  </si>
+  <si>
+    <t>SIS (lattice,L=100,omega=1)</t>
+  </si>
+  <si>
+    <t>0.48(0.016)</t>
+  </si>
+  <si>
+    <t>0.47(0.010)</t>
+  </si>
+  <si>
+    <t>0.49(0.009)</t>
+  </si>
+  <si>
+    <t>0.38(0.010)</t>
+  </si>
+  <si>
+    <t>0.31(0.014)</t>
+  </si>
+  <si>
+    <t>0.37(0.010)</t>
+  </si>
+  <si>
+    <t>SIS (NN,L=100,omega=1)</t>
+  </si>
+  <si>
+    <t>0.55(0.009)</t>
+  </si>
+  <si>
+    <t>0.60(0.008)</t>
+  </si>
+  <si>
+    <t>0.67(0.011)</t>
+  </si>
+  <si>
+    <t>0.64(0.012)</t>
+  </si>
+  <si>
+    <t>0.72(0.009)</t>
   </si>
 </sst>
 </file>
@@ -611,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -907,12 +958,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -944,7 +995,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -957,6 +1008,9 @@
       <c r="D22" t="s">
         <v>56</v>
       </c>
+      <c r="H22" t="s">
+        <v>73</v>
+      </c>
       <c r="I22" t="s">
         <v>45</v>
       </c>
@@ -964,7 +1018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -977,6 +1031,9 @@
       <c r="D23" t="s">
         <v>59</v>
       </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
       <c r="I23" t="s">
         <v>47</v>
       </c>
@@ -984,7 +1041,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -997,6 +1054,9 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
+      <c r="H24" t="s">
+        <v>75</v>
+      </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
@@ -1004,7 +1064,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1017,11 +1077,182 @@
       <c r="D25" t="s">
         <v>63</v>
       </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
       <c r="I25" t="s">
         <v>51</v>
       </c>
       <c r="J25" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30" t="s">
+        <v>66</v>
+      </c>
+      <c r="L30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+      <c r="J32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
+        <v>4</v>
+      </c>
+      <c r="H37" t="s">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" t="s">
+        <v>66</v>
+      </c>
+      <c r="L37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="J40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
   <si>
     <t>random</t>
   </si>
@@ -284,6 +284,18 @@
   </si>
   <si>
     <t>0.72(0.009)</t>
+  </si>
+  <si>
+    <t>mf two step new model</t>
+  </si>
+  <si>
+    <t>0.41(0.01)</t>
+  </si>
+  <si>
+    <t>0.35(0.01)</t>
+  </si>
+  <si>
+    <t>0.31(0.01)</t>
   </si>
 </sst>
 </file>
@@ -662,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,12 +685,12 @@
     <col min="15" max="15" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -712,8 +724,11 @@
       <c r="L2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -750,8 +765,11 @@
       <c r="L3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -782,8 +800,11 @@
       <c r="L4" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -811,8 +832,11 @@
       <c r="J5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -840,13 +864,16 @@
       <c r="J6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -869,7 +896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -877,7 +904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -885,7 +912,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
@@ -893,7 +920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -901,12 +928,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
   <si>
     <t>random</t>
   </si>
@@ -296,6 +296,18 @@
   </si>
   <si>
     <t>0.31(0.01)</t>
+  </si>
+  <si>
+    <t>0.56(0.01)</t>
+  </si>
+  <si>
+    <t>0.54(0.01)</t>
+  </si>
+  <si>
+    <t>0.60(0.01)</t>
+  </si>
+  <si>
+    <t>mf one step projection combo</t>
   </si>
 </sst>
 </file>
@@ -676,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M69" sqref="M69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,6 +736,9 @@
       <c r="L2" t="s">
         <v>57</v>
       </c>
+      <c r="M2" t="s">
+        <v>97</v>
+      </c>
       <c r="N2" t="s">
         <v>90</v>
       </c>
@@ -765,6 +780,9 @@
       <c r="L3" t="s">
         <v>71</v>
       </c>
+      <c r="M3" t="s">
+        <v>6</v>
+      </c>
       <c r="N3" t="s">
         <v>92</v>
       </c>
@@ -800,6 +818,9 @@
       <c r="L4" t="s">
         <v>72</v>
       </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
       <c r="N4" t="s">
         <v>91</v>
       </c>
@@ -832,6 +853,9 @@
       <c r="J5" t="s">
         <v>69</v>
       </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
@@ -864,6 +888,9 @@
       <c r="J6" t="s">
         <v>70</v>
       </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
       <c r="N6" t="s">
         <v>93</v>
       </c>
@@ -959,7 +986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -985,12 +1012,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1021,8 +1048,11 @@
       <c r="K21" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1045,7 +1075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1067,8 +1097,11 @@
       <c r="J23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1090,8 +1123,11 @@
       <c r="J24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1113,13 +1149,16 @@
       <c r="J25" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1193,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1165,7 +1204,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
   <si>
     <t>random</t>
   </si>
@@ -112,9 +112,6 @@
     <t>0.17(0.01)</t>
   </si>
   <si>
-    <t>0.21(0.005)</t>
-  </si>
-  <si>
     <t>0.16(0.004)</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>mb myopic</t>
   </si>
   <si>
-    <t>0.37(0.004)</t>
-  </si>
-  <si>
     <t>mf two step</t>
   </si>
   <si>
@@ -308,6 +302,39 @@
   </si>
   <si>
     <t>mf one step projection combo</t>
+  </si>
+  <si>
+    <t>0.20(0.02)</t>
+  </si>
+  <si>
+    <t>0.61(0.01)</t>
+  </si>
+  <si>
+    <t>0.71(0.01)</t>
+  </si>
+  <si>
+    <t>0.21(0.02)</t>
+  </si>
+  <si>
+    <t>0.53(0.01)</t>
+  </si>
+  <si>
+    <t>0.64(0.01)</t>
+  </si>
+  <si>
+    <t>SIS (NN,L=500)</t>
+  </si>
+  <si>
+    <t>0.50(0.004)</t>
+  </si>
+  <si>
+    <t>0.56(0.004)</t>
+  </si>
+  <si>
+    <t>0.62(0.004)</t>
+  </si>
+  <si>
+    <t>0.74(0.004)</t>
   </si>
 </sst>
 </file>
@@ -686,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M69" sqref="M69"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -725,22 +752,22 @@
         <v>5</v>
       </c>
       <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -772,19 +799,19 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -813,16 +840,16 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -851,7 +878,7 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s">
         <v>6</v>
@@ -877,22 +904,22 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -914,7 +941,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>4</v>
@@ -974,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" t="s">
         <v>4</v>
@@ -983,38 +1010,32 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1031,7 +1052,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
@@ -1040,16 +1061,16 @@
         <v>5</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1057,22 +1078,25 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
         <v>56</v>
-      </c>
-      <c r="H22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1080,25 +1104,28 @@
         <v>0.5</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -1106,25 +1133,28 @@
         <v>0.75</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1132,30 +1162,33 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
       </c>
       <c r="H25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -1172,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>4</v>
@@ -1181,16 +1214,16 @@
         <v>5</v>
       </c>
       <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" t="s">
         <v>41</v>
       </c>
-      <c r="J30" t="s">
-        <v>43</v>
-      </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -1198,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -1209,40 +1242,40 @@
         <v>0.5</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.75</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J34" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1289,7 @@
         <v>3</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
         <v>4</v>
@@ -1265,60 +1298,150 @@
         <v>5</v>
       </c>
       <c r="I37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s">
         <v>41</v>
       </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
       <c r="K37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.5</v>
       </c>
       <c r="C39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.75</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" t="s">
+        <v>64</v>
+      </c>
+      <c r="L44" t="s">
+        <v>55</v>
+      </c>
+      <c r="M44" t="s">
+        <v>95</v>
+      </c>
+      <c r="N44" t="s">
         <v>88</v>
       </c>
-      <c r="J41" t="s">
-        <v>89</v>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.75</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
   <si>
     <t>random</t>
   </si>
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1098,9 @@
       <c r="J22" t="s">
         <v>56</v>
       </c>
+      <c r="N22" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
   <si>
     <t>random</t>
   </si>
@@ -335,6 +335,24 @@
   </si>
   <si>
     <t>0.74(0.004)</t>
+  </si>
+  <si>
+    <t>SIS (lattice,L=500)</t>
+  </si>
+  <si>
+    <t>0.55(0.003</t>
+  </si>
+  <si>
+    <t>0.51(0.004)</t>
+  </si>
+  <si>
+    <t>0.52(0.003)</t>
+  </si>
+  <si>
+    <t>0.51(0.003)</t>
+  </si>
+  <si>
+    <t>0.48(0.005)</t>
   </si>
 </sst>
 </file>
@@ -713,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,9 +1116,6 @@
       <c r="J22" t="s">
         <v>56</v>
       </c>
-      <c r="N22" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1445,6 +1460,96 @@
       </c>
       <c r="C48" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H51" t="s">
+        <v>5</v>
+      </c>
+      <c r="I51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s">
+        <v>41</v>
+      </c>
+      <c r="K51" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" t="s">
+        <v>55</v>
+      </c>
+      <c r="M51" t="s">
+        <v>95</v>
+      </c>
+      <c r="N51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.75</v>
+      </c>
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
   <si>
     <t>random</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>0.48(0.005)</t>
+  </si>
+  <si>
+    <t>0.35(0.04)</t>
   </si>
 </sst>
 </file>
@@ -733,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,6 +1119,9 @@
       <c r="J22" t="s">
         <v>56</v>
       </c>
+      <c r="N22" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
   <si>
     <t>random</t>
   </si>
@@ -346,16 +346,22 @@
     <t>0.51(0.004)</t>
   </si>
   <si>
-    <t>0.52(0.003)</t>
-  </si>
-  <si>
-    <t>0.51(0.003)</t>
-  </si>
-  <si>
-    <t>0.48(0.005)</t>
-  </si>
-  <si>
     <t>0.35(0.04)</t>
+  </si>
+  <si>
+    <t>0.19(0.005)</t>
+  </si>
+  <si>
+    <t>0.18(0.005)</t>
+  </si>
+  <si>
+    <t>0.49(0.005)</t>
+  </si>
+  <si>
+    <t>0.43(0.005)</t>
+  </si>
+  <si>
+    <t>0.35(0.005)</t>
   </si>
 </sst>
 </file>
@@ -399,9 +405,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1040,9 @@
       <c r="I16" t="s">
         <v>40</v>
       </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1041,6 +1051,9 @@
       <c r="C17" t="s">
         <v>31</v>
       </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
       <c r="E17" t="s">
         <v>39</v>
       </c>
@@ -1052,6 +1065,9 @@
       </c>
       <c r="H17" t="s">
         <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1120,7 +1136,7 @@
         <v>56</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1521,9 +1537,7 @@
       <c r="B52" t="s">
         <v>108</v>
       </c>
-      <c r="C52" t="s">
-        <v>110</v>
-      </c>
+      <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -1532,8 +1546,8 @@
       <c r="B53" t="s">
         <v>109</v>
       </c>
-      <c r="C53" t="s">
-        <v>111</v>
+      <c r="C53" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
@@ -1543,8 +1557,8 @@
       <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="C54" t="s">
-        <v>112</v>
+      <c r="C54" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
@@ -1554,8 +1568,8 @@
       <c r="B55" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="s">
-        <v>29</v>
+      <c r="C55" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
   <si>
     <t>random</t>
   </si>
@@ -362,6 +362,45 @@
   </si>
   <si>
     <t>0.35(0.005)</t>
+  </si>
+  <si>
+    <t>0.37(0.01)</t>
+  </si>
+  <si>
+    <t>0.02(0.001)</t>
+  </si>
+  <si>
+    <t>0.48(0.006)</t>
+  </si>
+  <si>
+    <t>0.72(0.004)</t>
+  </si>
+  <si>
+    <t>0.44(0.005)</t>
+  </si>
+  <si>
+    <t>0.40(0.006)</t>
+  </si>
+  <si>
+    <t>0.47(0.007)</t>
+  </si>
+  <si>
+    <t>0.49(0.004)</t>
+  </si>
+  <si>
+    <t>0.47(0.006)</t>
+  </si>
+  <si>
+    <t>0.61(0.004)</t>
+  </si>
+  <si>
+    <t>0.07(0.010)</t>
+  </si>
+  <si>
+    <t>0.41(0.007)</t>
+  </si>
+  <si>
+    <t>0.52(0.003)</t>
   </si>
 </sst>
 </file>
@@ -743,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,6 +1105,9 @@
       <c r="H17" t="s">
         <v>32</v>
       </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
       <c r="J17" t="s">
         <v>111</v>
       </c>
@@ -1450,6 +1492,12 @@
       <c r="C45" t="s">
         <v>99</v>
       </c>
+      <c r="D45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -1461,6 +1509,12 @@
       <c r="C46" t="s">
         <v>100</v>
       </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -1472,6 +1526,9 @@
       <c r="C47" t="s">
         <v>44</v>
       </c>
+      <c r="D47" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -1483,6 +1540,9 @@
       <c r="C48" t="s">
         <v>101</v>
       </c>
+      <c r="D48" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1537,7 +1597,15 @@
       <c r="B52" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -1549,6 +1617,12 @@
       <c r="C53" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="D53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -1560,6 +1634,12 @@
       <c r="C54" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -1569,6 +1649,12 @@
         <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" t="s">
         <v>115</v>
       </c>
     </row>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="154">
   <si>
     <t>random</t>
   </si>
@@ -401,6 +401,81 @@
   </si>
   <si>
     <t>0.52(0.003)</t>
+  </si>
+  <si>
+    <t>SIS (lattice,L=300)</t>
+  </si>
+  <si>
+    <t>SIS (NN,L=300)</t>
+  </si>
+  <si>
+    <t>0.72(0.007)</t>
+  </si>
+  <si>
+    <t>0.10(0.012)</t>
+  </si>
+  <si>
+    <t>0.57(0.009)</t>
+  </si>
+  <si>
+    <t>0.49(0.007)</t>
+  </si>
+  <si>
+    <t>0.48(0.007)</t>
+  </si>
+  <si>
+    <t>0.08(0.012)</t>
+  </si>
+  <si>
+    <t>0.59(0.006)</t>
+  </si>
+  <si>
+    <t>0.50(0.005)</t>
+  </si>
+  <si>
+    <t>0.54(0.006)</t>
+  </si>
+  <si>
+    <t>0.38(0.008)</t>
+  </si>
+  <si>
+    <t>0.43(0.007)</t>
+  </si>
+  <si>
+    <t>0.52(0.008)</t>
+  </si>
+  <si>
+    <t>0.46(0.007)</t>
+  </si>
+  <si>
+    <t>0.35(0.008)</t>
+  </si>
+  <si>
+    <t>0.33(0.008)</t>
+  </si>
+  <si>
+    <t>0.44(0.006)</t>
+  </si>
+  <si>
+    <t>0.52(0.005)</t>
+  </si>
+  <si>
+    <t>0.54(0.005)</t>
+  </si>
+  <si>
+    <t>0.57(0.006)</t>
+  </si>
+  <si>
+    <t>0.62(0.006)</t>
+  </si>
+  <si>
+    <t>0.75(0.007)</t>
+  </si>
+  <si>
+    <t>0.45(0.006)</t>
+  </si>
+  <si>
+    <t>0.40(0.009)</t>
   </si>
 </sst>
 </file>
@@ -780,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,6 +1733,234 @@
         <v>115</v>
       </c>
     </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" t="s">
+        <v>55</v>
+      </c>
+      <c r="M58" t="s">
+        <v>95</v>
+      </c>
+      <c r="N58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>117</v>
+      </c>
+      <c r="G59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.75</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>151</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s">
+        <v>41</v>
+      </c>
+      <c r="K65" t="s">
+        <v>64</v>
+      </c>
+      <c r="L65" t="s">
+        <v>55</v>
+      </c>
+      <c r="M65" t="s">
+        <v>95</v>
+      </c>
+      <c r="N65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>140</v>
+      </c>
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>122</v>
+      </c>
+      <c r="G67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>152</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" t="s">
+        <v>143</v>
+      </c>
+      <c r="G68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" t="s">
+        <v>121</v>
+      </c>
+      <c r="G69" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="165">
   <si>
     <t>random</t>
   </si>
@@ -476,6 +476,39 @@
   </si>
   <si>
     <t>0.40(0.009)</t>
+  </si>
+  <si>
+    <t>0.56(0.007)</t>
+  </si>
+  <si>
+    <t>projection combo</t>
+  </si>
+  <si>
+    <t>0.65(0.010)</t>
+  </si>
+  <si>
+    <t>0.50(0.006)</t>
+  </si>
+  <si>
+    <t>0.44(0.007)</t>
+  </si>
+  <si>
+    <t>0.53(0.010)</t>
+  </si>
+  <si>
+    <t>0.70(0.01)</t>
+  </si>
+  <si>
+    <t>0.49(0.006)</t>
+  </si>
+  <si>
+    <t>0.57(0.008)</t>
+  </si>
+  <si>
+    <t>045(0.008)</t>
+  </si>
+  <si>
+    <t>0.34(0.01)</t>
   </si>
 </sst>
 </file>
@@ -855,10 +888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,12 +899,12 @@
     <col min="15" max="15" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -911,8 +944,11 @@
       <c r="N2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -955,8 +991,11 @@
       <c r="N3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -993,8 +1032,11 @@
       <c r="N4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -1028,8 +1070,11 @@
       <c r="N5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1063,13 +1108,16 @@
       <c r="N6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1100,7 +1148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -1108,7 +1156,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
@@ -1116,7 +1164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1124,12 +1172,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1158,7 +1206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1187,12 +1235,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1274,11 @@
       <c r="N21" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1255,8 +1306,11 @@
       <c r="N22" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1284,8 +1338,11 @@
       <c r="N23" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1313,8 +1370,11 @@
       <c r="N24" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1342,13 +1402,16 @@
       <c r="N25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1394,7 +1457,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -1405,7 +1468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.75</v>
       </c>
@@ -1416,7 +1479,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1427,12 +1490,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1478,7 +1541,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.5</v>
       </c>
@@ -1489,7 +1552,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.75</v>
       </c>
@@ -1500,7 +1563,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1511,12 +1574,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -1556,8 +1619,11 @@
       <c r="N44" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0</v>
       </c>
@@ -1574,7 +1640,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.5</v>
       </c>
@@ -1591,7 +1657,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.75</v>
       </c>
@@ -1605,7 +1671,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -1681,6 +1747,9 @@
       <c r="G52" t="s">
         <v>103</v>
       </c>
+      <c r="N52" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -1792,6 +1861,9 @@
       <c r="D59" t="s">
         <v>117</v>
       </c>
+      <c r="F59" t="s">
+        <v>144</v>
+      </c>
       <c r="G59" t="s">
         <v>136</v>
       </c>
@@ -1809,6 +1881,9 @@
       <c r="D60" t="s">
         <v>143</v>
       </c>
+      <c r="F60" t="s">
+        <v>161</v>
+      </c>
       <c r="G60" t="s">
         <v>118</v>
       </c>
@@ -1826,6 +1901,9 @@
       <c r="D61" t="s">
         <v>137</v>
       </c>
+      <c r="F61" t="s">
+        <v>154</v>
+      </c>
       <c r="G61" t="s">
         <v>139</v>
       </c>
@@ -1843,6 +1921,9 @@
       <c r="D62" t="s">
         <v>131</v>
       </c>
+      <c r="F62" t="s">
+        <v>162</v>
+      </c>
       <c r="G62" t="s">
         <v>84</v>
       </c>
@@ -1906,6 +1987,9 @@
       <c r="D66" t="s">
         <v>140</v>
       </c>
+      <c r="F66" t="s">
+        <v>157</v>
+      </c>
       <c r="G66" t="s">
         <v>138</v>
       </c>
@@ -1923,6 +2007,9 @@
       <c r="D67" t="s">
         <v>122</v>
       </c>
+      <c r="F67" t="s">
+        <v>118</v>
+      </c>
       <c r="G67" t="s">
         <v>135</v>
       </c>
@@ -1940,6 +2027,9 @@
       <c r="D68" t="s">
         <v>143</v>
       </c>
+      <c r="F68" t="s">
+        <v>158</v>
+      </c>
       <c r="G68" t="s">
         <v>141</v>
       </c>
@@ -1956,6 +2046,9 @@
       </c>
       <c r="D69" t="s">
         <v>121</v>
+      </c>
+      <c r="F69" t="s">
+        <v>145</v>
       </c>
       <c r="G69" t="s">
         <v>145</v>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="165">
   <si>
     <t>random</t>
   </si>
@@ -890,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,6 +1867,9 @@
       <c r="G59" t="s">
         <v>136</v>
       </c>
+      <c r="N59" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="165">
   <si>
     <t>random</t>
   </si>
@@ -891,7 +891,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,6 +1996,9 @@
       <c r="G66" t="s">
         <v>138</v>
       </c>
+      <c r="N66" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -2015,6 +2018,9 @@
       </c>
       <c r="G67" t="s">
         <v>135</v>
+      </c>
+      <c r="N67" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.25">

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="167">
   <si>
     <t>random</t>
   </si>
@@ -509,6 +509,12 @@
   </si>
   <si>
     <t>0.34(0.01)</t>
+  </si>
+  <si>
+    <t>0.44(0.07)</t>
+  </si>
+  <si>
+    <t>0.49(0.008)</t>
   </si>
 </sst>
 </file>
@@ -891,7 +897,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="N68" sqref="N68"/>
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,6 +1873,9 @@
       <c r="G59" t="s">
         <v>136</v>
       </c>
+      <c r="H59" t="s">
+        <v>117</v>
+      </c>
       <c r="N59" t="s">
         <v>135</v>
       </c>
@@ -1890,6 +1899,9 @@
       <c r="G60" t="s">
         <v>118</v>
       </c>
+      <c r="N60" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -1910,6 +1922,9 @@
       <c r="G61" t="s">
         <v>139</v>
       </c>
+      <c r="N61" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -1930,6 +1945,9 @@
       <c r="G62" t="s">
         <v>84</v>
       </c>
+      <c r="N62" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -2041,6 +2059,9 @@
       </c>
       <c r="G68" t="s">
         <v>141</v>
+      </c>
+      <c r="N68" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.25">

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="168">
   <si>
     <t>random</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>0.49(0.008)</t>
+  </si>
+  <si>
+    <t>0.37(0.008)</t>
   </si>
 </sst>
 </file>
@@ -897,7 +900,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+      <selection activeCell="N70" sqref="N70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,6 +2086,9 @@
       <c r="G69" t="s">
         <v>145</v>
       </c>
+      <c r="N69" t="s">
+        <v>167</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="174">
   <si>
     <t>random</t>
   </si>
@@ -518,6 +518,24 @@
   </si>
   <si>
     <t>0.37(0.008)</t>
+  </si>
+  <si>
+    <t>aic one step</t>
+  </si>
+  <si>
+    <t>0.40(0.013)</t>
+  </si>
+  <si>
+    <t>0.32(0.01)</t>
+  </si>
+  <si>
+    <t>0.27(0.02)</t>
+  </si>
+  <si>
+    <t>0.04(0.008)</t>
+  </si>
+  <si>
+    <t>0.34(0.013)</t>
   </si>
 </sst>
 </file>
@@ -897,23 +915,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="N70" sqref="N70"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="15" max="15" width="74.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -956,8 +974,11 @@
       <c r="O2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1003,8 +1024,11 @@
       <c r="O3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1044,8 +1068,11 @@
       <c r="O4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -1082,8 +1109,11 @@
       <c r="O5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1120,13 +1150,16 @@
       <c r="O6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1157,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -1165,7 +1198,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
@@ -1173,7 +1206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1181,12 +1214,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1244,12 +1277,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1286,8 +1319,11 @@
       <c r="O21" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1318,8 +1354,11 @@
       <c r="O22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1350,8 +1389,11 @@
       <c r="O23" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1382,8 +1424,11 @@
       <c r="O24" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1414,13 +1459,16 @@
       <c r="O25" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1455,7 +1503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1466,7 +1514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="182">
   <si>
     <t>random</t>
   </si>
@@ -536,6 +536,30 @@
   </si>
   <si>
     <t>0.34(0.013)</t>
+  </si>
+  <si>
+    <t>one step new model</t>
+  </si>
+  <si>
+    <t>0.45(0.011)</t>
+  </si>
+  <si>
+    <t>0.32(0.010)</t>
+  </si>
+  <si>
+    <t>0.46(0.014)</t>
+  </si>
+  <si>
+    <t>0.41(0.014)</t>
+  </si>
+  <si>
+    <t>0.39(0.012)</t>
+  </si>
+  <si>
+    <t>0.18(0.022)</t>
+  </si>
+  <si>
+    <t>0.41(0.011)</t>
   </si>
 </sst>
 </file>
@@ -915,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -926,12 +950,12 @@
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -977,8 +1001,11 @@
       <c r="P2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1027,8 +1054,11 @@
       <c r="P3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1071,8 +1101,11 @@
       <c r="P4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -1112,8 +1145,11 @@
       <c r="P5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1153,13 +1189,16 @@
       <c r="P6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1190,7 +1229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -1198,7 +1237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
@@ -1206,7 +1245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1214,12 +1253,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1277,12 +1316,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -1322,8 +1361,11 @@
       <c r="P21" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1357,8 +1399,11 @@
       <c r="P22" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1392,8 +1437,11 @@
       <c r="P23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1427,8 +1475,11 @@
       <c r="P24" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1462,13 +1513,16 @@
       <c r="P25" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1514,7 +1568,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="211">
   <si>
     <t>random</t>
   </si>
@@ -560,6 +560,93 @@
   </si>
   <si>
     <t>0.41(0.011)</t>
+  </si>
+  <si>
+    <t>one step stacked new model</t>
+  </si>
+  <si>
+    <t>one step equal averaged new model</t>
+  </si>
+  <si>
+    <t>0.34(0.012)</t>
+  </si>
+  <si>
+    <t>0.36(0.012)</t>
+  </si>
+  <si>
+    <t>0.48(0.009)</t>
+  </si>
+  <si>
+    <t>0.34(0.018)</t>
+  </si>
+  <si>
+    <t>0.46(0.012)</t>
+  </si>
+  <si>
+    <t>0.43(0.012)</t>
+  </si>
+  <si>
+    <t>mf two step new</t>
+  </si>
+  <si>
+    <t>0.48(0.010)</t>
+  </si>
+  <si>
+    <t>0.41(0.013)</t>
+  </si>
+  <si>
+    <t>0.44(0.012)</t>
+  </si>
+  <si>
+    <t>one step continuation</t>
+  </si>
+  <si>
+    <t>0.54(0.012)</t>
+  </si>
+  <si>
+    <t>0.49(0.014)</t>
+  </si>
+  <si>
+    <t>0.46(0.021)</t>
+  </si>
+  <si>
+    <t>0.36(0.018)</t>
+  </si>
+  <si>
+    <t>0.45(0.016)</t>
+  </si>
+  <si>
+    <t>one step mse averaged new model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">one step mse averaged new </t>
+  </si>
+  <si>
+    <t>0.42(0.014)</t>
+  </si>
+  <si>
+    <t>0.46(0.013)</t>
+  </si>
+  <si>
+    <t>0.18(0.020)</t>
+  </si>
+  <si>
+    <t>0.14(0.021)</t>
+  </si>
+  <si>
+    <t>0.34(0.011)</t>
+  </si>
+  <si>
+    <t>0.43(0.011)</t>
+  </si>
+  <si>
+    <t>0.46(0.08)</t>
+  </si>
+  <si>
+    <t>0.41(0.009)</t>
+  </si>
+  <si>
+    <t>0.38(0.011)</t>
   </si>
 </sst>
 </file>
@@ -583,12 +670,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -603,10 +696,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,23 +1033,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1004,8 +1101,20 @@
       <c r="Q2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>200</v>
+      </c>
+      <c r="S2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T2" t="s">
+        <v>183</v>
+      </c>
+      <c r="V2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1057,8 +1166,17 @@
       <c r="Q3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1104,8 +1222,20 @@
       <c r="Q4" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T4" t="s">
+        <v>203</v>
+      </c>
+      <c r="V4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.75</v>
       </c>
@@ -1148,8 +1278,17 @@
       <c r="Q5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" t="s">
+        <v>209</v>
+      </c>
+      <c r="S5" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1192,13 +1331,25 @@
       <c r="Q6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>184</v>
+      </c>
+      <c r="S6" t="s">
+        <v>184</v>
+      </c>
+      <c r="T6" t="s">
+        <v>176</v>
+      </c>
+      <c r="V6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1229,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.5</v>
       </c>
@@ -1237,7 +1388,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.75</v>
       </c>
@@ -1245,7 +1396,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1253,12 +1404,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1438,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1316,42 +1467,43 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="L21" s="3"/>
       <c r="N21" t="s">
         <v>88</v>
       </c>
@@ -1364,32 +1516,51 @@
       <c r="Q21" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" t="s">
+        <v>201</v>
+      </c>
+      <c r="S21" t="s">
+        <v>182</v>
+      </c>
+      <c r="T21" t="s">
+        <v>183</v>
+      </c>
+      <c r="U21" t="s">
+        <v>190</v>
+      </c>
+      <c r="V21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G22" t="s">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
       <c r="N22" t="s">
         <v>110</v>
       </c>
@@ -1402,32 +1573,51 @@
       <c r="Q22" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>204</v>
+      </c>
+      <c r="S22" t="s">
+        <v>187</v>
+      </c>
+      <c r="T22" t="s">
+        <v>205</v>
+      </c>
+      <c r="U22" t="s">
+        <v>191</v>
+      </c>
+      <c r="V22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G23" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
       <c r="N23" t="s">
         <v>92</v>
       </c>
@@ -1440,32 +1630,51 @@
       <c r="Q23" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" t="s">
+        <v>210</v>
+      </c>
+      <c r="S23" t="s">
+        <v>188</v>
+      </c>
+      <c r="T23" t="s">
+        <v>179</v>
+      </c>
+      <c r="U23" t="s">
+        <v>191</v>
+      </c>
+      <c r="V23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G24" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
       <c r="N24" t="s">
         <v>93</v>
       </c>
@@ -1478,32 +1687,48 @@
       <c r="Q24" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>207</v>
+      </c>
+      <c r="S24" t="s">
+        <v>189</v>
+      </c>
+      <c r="T24" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="N25" t="s">
         <v>94</v>
       </c>
@@ -1516,13 +1741,28 @@
       <c r="Q25" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" t="s">
+        <v>202</v>
+      </c>
+      <c r="S25" t="s">
+        <v>185</v>
+      </c>
+      <c r="T25" t="s">
+        <v>206</v>
+      </c>
+      <c r="U25" t="s">
+        <v>192</v>
+      </c>
+      <c r="V25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1797,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1568,7 +1808,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -1796,12 +2036,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -1842,7 +2082,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1862,7 +2102,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.5</v>
       </c>
@@ -1879,7 +2119,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.75</v>
       </c>
@@ -1896,7 +2136,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -1913,12 +2153,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -1958,8 +2198,14 @@
       <c r="N58" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S58" t="s">
+        <v>182</v>
+      </c>
+      <c r="T58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1972,20 +2218,20 @@
       <c r="D59" t="s">
         <v>117</v>
       </c>
-      <c r="F59" t="s">
-        <v>144</v>
-      </c>
-      <c r="G59" t="s">
-        <v>136</v>
-      </c>
       <c r="H59" t="s">
         <v>117</v>
       </c>
       <c r="N59" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S59" t="s">
+        <v>144</v>
+      </c>
+      <c r="T59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.5</v>
       </c>
@@ -1998,17 +2244,17 @@
       <c r="D60" t="s">
         <v>143</v>
       </c>
-      <c r="F60" t="s">
-        <v>161</v>
-      </c>
-      <c r="G60" t="s">
-        <v>118</v>
-      </c>
       <c r="N60" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S60" t="s">
+        <v>161</v>
+      </c>
+      <c r="T60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.75</v>
       </c>
@@ -2021,17 +2267,17 @@
       <c r="D61" t="s">
         <v>137</v>
       </c>
-      <c r="F61" t="s">
-        <v>154</v>
-      </c>
-      <c r="G61" t="s">
-        <v>139</v>
-      </c>
       <c r="N61" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S61" t="s">
+        <v>154</v>
+      </c>
+      <c r="T61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2044,22 +2290,22 @@
       <c r="D62" t="s">
         <v>131</v>
       </c>
-      <c r="F62" t="s">
-        <v>162</v>
-      </c>
-      <c r="G62" t="s">
-        <v>84</v>
-      </c>
       <c r="N62" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S62" t="s">
+        <v>162</v>
+      </c>
+      <c r="T62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -2099,8 +2345,14 @@
       <c r="N65" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S65" t="s">
+        <v>182</v>
+      </c>
+      <c r="T65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -2113,17 +2365,17 @@
       <c r="D66" t="s">
         <v>140</v>
       </c>
-      <c r="F66" t="s">
-        <v>157</v>
-      </c>
-      <c r="G66" t="s">
-        <v>138</v>
-      </c>
       <c r="N66" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S66" t="s">
+        <v>157</v>
+      </c>
+      <c r="T66" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.5</v>
       </c>
@@ -2136,17 +2388,17 @@
       <c r="D67" t="s">
         <v>122</v>
       </c>
-      <c r="F67" t="s">
-        <v>118</v>
-      </c>
-      <c r="G67" t="s">
-        <v>135</v>
-      </c>
       <c r="N67" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S67" t="s">
+        <v>118</v>
+      </c>
+      <c r="T67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.75</v>
       </c>
@@ -2159,17 +2411,17 @@
       <c r="D68" t="s">
         <v>143</v>
       </c>
-      <c r="F68" t="s">
-        <v>158</v>
-      </c>
-      <c r="G68" t="s">
-        <v>141</v>
-      </c>
       <c r="N68" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="S68" t="s">
+        <v>158</v>
+      </c>
+      <c r="T68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2182,14 +2434,14 @@
       <c r="D69" t="s">
         <v>121</v>
       </c>
-      <c r="F69" t="s">
-        <v>145</v>
-      </c>
-      <c r="G69" t="s">
-        <v>145</v>
-      </c>
       <c r="N69" t="s">
         <v>167</v>
+      </c>
+      <c r="S69" t="s">
+        <v>145</v>
+      </c>
+      <c r="T69" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="206">
   <si>
     <t>random</t>
   </si>
@@ -599,21 +599,6 @@
   </si>
   <si>
     <t>one step continuation</t>
-  </si>
-  <si>
-    <t>0.54(0.012)</t>
-  </si>
-  <si>
-    <t>0.49(0.014)</t>
-  </si>
-  <si>
-    <t>0.46(0.021)</t>
-  </si>
-  <si>
-    <t>0.36(0.018)</t>
-  </si>
-  <si>
-    <t>0.45(0.016)</t>
   </si>
   <si>
     <t>one step mse averaged new model</t>
@@ -1035,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,7 +1087,7 @@
         <v>174</v>
       </c>
       <c r="R2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="S2" t="s">
         <v>182</v>
@@ -1223,16 +1208,13 @@
         <v>175</v>
       </c>
       <c r="R4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="S4" t="s">
         <v>175</v>
       </c>
       <c r="T4" t="s">
-        <v>203</v>
-      </c>
-      <c r="V4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1279,13 +1261,10 @@
         <v>179</v>
       </c>
       <c r="R5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="S5" t="s">
         <v>181</v>
-      </c>
-      <c r="V5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1340,9 +1319,6 @@
       <c r="T6" t="s">
         <v>176</v>
       </c>
-      <c r="V6" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1517,7 +1493,7 @@
         <v>174</v>
       </c>
       <c r="R21" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S21" t="s">
         <v>182</v>
@@ -1574,19 +1550,16 @@
         <v>180</v>
       </c>
       <c r="R22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="S22" t="s">
         <v>187</v>
       </c>
       <c r="T22" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="U22" t="s">
         <v>191</v>
-      </c>
-      <c r="V22" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -1631,7 +1604,7 @@
         <v>181</v>
       </c>
       <c r="R23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="S23" t="s">
         <v>188</v>
@@ -1641,9 +1614,6 @@
       </c>
       <c r="U23" t="s">
         <v>191</v>
-      </c>
-      <c r="V23" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -1688,7 +1658,7 @@
         <v>178</v>
       </c>
       <c r="R24" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="S24" t="s">
         <v>189</v>
@@ -1742,19 +1712,16 @@
         <v>170</v>
       </c>
       <c r="R25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="S25" t="s">
         <v>185</v>
       </c>
       <c r="T25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="U25" t="s">
         <v>192</v>
-      </c>
-      <c r="V25" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="197">
   <si>
     <t>random</t>
   </si>
@@ -166,18 +166,6 @@
     <t>0.73(0.009)</t>
   </si>
   <si>
-    <t>0.51(0.012)</t>
-  </si>
-  <si>
-    <t>0.58(0.011)</t>
-  </si>
-  <si>
-    <t>0.62(0.011)</t>
-  </si>
-  <si>
-    <t>0.76(0.008)</t>
-  </si>
-  <si>
     <t>0.03(0.006)</t>
   </si>
   <si>
@@ -292,15 +280,9 @@
     <t>0.31(0.01)</t>
   </si>
   <si>
-    <t>0.56(0.01)</t>
-  </si>
-  <si>
     <t>0.54(0.01)</t>
   </si>
   <si>
-    <t>0.60(0.01)</t>
-  </si>
-  <si>
     <t>mf one step projection combo</t>
   </si>
   <si>
@@ -346,9 +328,6 @@
     <t>0.51(0.004)</t>
   </si>
   <si>
-    <t>0.35(0.04)</t>
-  </si>
-  <si>
     <t>0.19(0.005)</t>
   </si>
   <si>
@@ -484,21 +463,12 @@
     <t>projection combo</t>
   </si>
   <si>
-    <t>0.65(0.010)</t>
-  </si>
-  <si>
     <t>0.50(0.006)</t>
   </si>
   <si>
     <t>0.44(0.007)</t>
   </si>
   <si>
-    <t>0.53(0.010)</t>
-  </si>
-  <si>
-    <t>0.70(0.01)</t>
-  </si>
-  <si>
     <t>0.49(0.006)</t>
   </si>
   <si>
@@ -632,6 +602,9 @@
   </si>
   <si>
     <t>0.38(0.011)</t>
+  </si>
+  <si>
+    <t>0.50(0.010)</t>
   </si>
 </sst>
 </file>
@@ -1020,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,37 +1039,37 @@
         <v>41</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="R2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="T2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="V2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1128,37 +1101,37 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
         <v>65</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>69</v>
       </c>
       <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="Q3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="R3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="S3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="T3" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1187,34 +1160,34 @@
         <v>28</v>
       </c>
       <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
         <v>66</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
       </c>
       <c r="M4" t="s">
         <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
       <c r="P4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="R4" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="S4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="T4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1243,7 +1216,7 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
         <v>6</v>
@@ -1252,19 +1225,19 @@
         <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q5" t="s">
         <v>169</v>
       </c>
-      <c r="Q5" t="s">
-        <v>179</v>
-      </c>
       <c r="R5" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="S5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1293,31 +1266,31 @@
         <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="Q6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="R6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="S6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="T6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1422,7 +1395,7 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
         <v>39</v>
@@ -1437,10 +1410,10 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -1449,7 +1422,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1474,259 +1447,228 @@
         <v>41</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L21" s="3"/>
-      <c r="N21" t="s">
-        <v>88</v>
-      </c>
       <c r="O21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q21" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="R21" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="S21" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="T21" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="U21" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="V21" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>50</v>
+      <c r="B22" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>43</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-      <c r="N22" t="s">
-        <v>110</v>
-      </c>
-      <c r="O22" t="s">
-        <v>10</v>
-      </c>
       <c r="P22" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="Q22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="R22" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="S22" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T22" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="U22" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>45</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="N23" t="s">
-        <v>92</v>
-      </c>
-      <c r="O23" t="s">
-        <v>159</v>
-      </c>
       <c r="P23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q23" t="s">
+        <v>171</v>
+      </c>
+      <c r="R23" t="s">
+        <v>195</v>
+      </c>
+      <c r="S23" t="s">
+        <v>178</v>
+      </c>
+      <c r="T23" t="s">
+        <v>169</v>
+      </c>
+      <c r="U23" t="s">
         <v>181</v>
-      </c>
-      <c r="R23" t="s">
-        <v>205</v>
-      </c>
-      <c r="S23" t="s">
-        <v>188</v>
-      </c>
-      <c r="T23" t="s">
-        <v>179</v>
-      </c>
-      <c r="U23" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>47</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-      <c r="N24" t="s">
-        <v>93</v>
-      </c>
-      <c r="O24" t="s">
-        <v>156</v>
-      </c>
       <c r="P24" t="s">
         <v>8</v>
       </c>
       <c r="Q24" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="R24" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="S24" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="T24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>53</v>
+      <c r="B25" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-      <c r="N25" t="s">
-        <v>94</v>
-      </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q25" t="s">
         <v>160</v>
       </c>
-      <c r="P25" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>170</v>
-      </c>
       <c r="R25" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="S25" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="T25" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="U25" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -1758,10 +1700,10 @@
         <v>41</v>
       </c>
       <c r="K30" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -1769,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -1780,10 +1722,10 @@
         <v>0.5</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -1791,10 +1733,10 @@
         <v>0.75</v>
       </c>
       <c r="C33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -1802,15 +1744,15 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -1842,10 +1784,10 @@
         <v>41</v>
       </c>
       <c r="K37" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -1853,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -1864,10 +1806,10 @@
         <v>0.5</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J39" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -1878,7 +1820,7 @@
         <v>46</v>
       </c>
       <c r="J40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -1886,15 +1828,15 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -1926,19 +1868,19 @@
         <v>41</v>
       </c>
       <c r="K44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O44" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -1946,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -1963,16 +1905,16 @@
         <v>0.5</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G46" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -1980,13 +1922,13 @@
         <v>0.75</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
         <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1994,18 +1936,18 @@
         <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
@@ -2037,16 +1979,16 @@
         <v>41</v>
       </c>
       <c r="K51" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M51" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N51" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
@@ -2054,19 +1996,19 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G52" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N52" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
@@ -2074,16 +2016,16 @@
         <v>0.5</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G53" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
@@ -2094,13 +2036,13 @@
         <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G54" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
@@ -2111,18 +2053,18 @@
         <v>29</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -2154,22 +2096,22 @@
         <v>41</v>
       </c>
       <c r="K58" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L58" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M58" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S58" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="T58" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -2177,25 +2119,25 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C59" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H59" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="N59" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="S59" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="T59" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
@@ -2203,22 +2145,22 @@
         <v>0.5</v>
       </c>
       <c r="B60" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N60" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="S60" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="T60" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
@@ -2226,22 +2168,22 @@
         <v>0.75</v>
       </c>
       <c r="B61" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" t="s">
+        <v>130</v>
+      </c>
+      <c r="N61" t="s">
         <v>150</v>
       </c>
-      <c r="C61" t="s">
-        <v>142</v>
-      </c>
-      <c r="D61" t="s">
-        <v>137</v>
-      </c>
-      <c r="N61" t="s">
-        <v>158</v>
-      </c>
       <c r="S61" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="T61" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -2249,27 +2191,27 @@
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N62" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="S62" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="T62" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
@@ -2301,22 +2243,22 @@
         <v>41</v>
       </c>
       <c r="K65" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L65" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="M65" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="N65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="S65" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="T65" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -2324,22 +2266,22 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="N66" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="S66" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="T66" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -2347,22 +2289,22 @@
         <v>0.5</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="N67" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="S67" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="T67" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
@@ -2370,22 +2312,22 @@
         <v>0.75</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="N68" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="S68" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="T68" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -2393,22 +2335,22 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="N69" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="S69" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="T69" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="200">
   <si>
     <t>random</t>
   </si>
@@ -605,6 +605,15 @@
   </si>
   <si>
     <t>0.50(0.010)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aic one step </t>
+  </si>
+  <si>
+    <t>0.42(0.009)</t>
+  </si>
+  <si>
+    <t>0.34(0.009)</t>
   </si>
 </sst>
 </file>
@@ -993,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22:O25"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,6 +2116,9 @@
       <c r="N58" t="s">
         <v>84</v>
       </c>
+      <c r="P58" t="s">
+        <v>197</v>
+      </c>
       <c r="S58" t="s">
         <v>172</v>
       </c>
@@ -2254,6 +2266,9 @@
       <c r="N65" t="s">
         <v>84</v>
       </c>
+      <c r="P65" t="s">
+        <v>158</v>
+      </c>
       <c r="S65" t="s">
         <v>172</v>
       </c>
@@ -2277,6 +2292,9 @@
       <c r="N66" t="s">
         <v>106</v>
       </c>
+      <c r="P66" t="s">
+        <v>21</v>
+      </c>
       <c r="S66" t="s">
         <v>149</v>
       </c>
@@ -2300,6 +2318,9 @@
       <c r="N67" t="s">
         <v>115</v>
       </c>
+      <c r="P67" t="s">
+        <v>111</v>
+      </c>
       <c r="S67" t="s">
         <v>111</v>
       </c>
@@ -2323,6 +2344,9 @@
       <c r="N68" t="s">
         <v>155</v>
       </c>
+      <c r="P68" t="s">
+        <v>198</v>
+      </c>
       <c r="S68" t="s">
         <v>150</v>
       </c>
@@ -2345,6 +2369,9 @@
       </c>
       <c r="N69" t="s">
         <v>157</v>
+      </c>
+      <c r="P69" t="s">
+        <v>199</v>
       </c>
       <c r="S69" t="s">
         <v>138</v>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="208">
   <si>
     <t>random</t>
   </si>
@@ -520,15 +520,9 @@
     <t>0.46(0.014)</t>
   </si>
   <si>
-    <t>0.41(0.014)</t>
-  </si>
-  <si>
     <t>0.39(0.012)</t>
   </si>
   <si>
-    <t>0.18(0.022)</t>
-  </si>
-  <si>
     <t>0.41(0.011)</t>
   </si>
   <si>
@@ -562,12 +556,6 @@
     <t>0.48(0.010)</t>
   </si>
   <si>
-    <t>0.41(0.013)</t>
-  </si>
-  <si>
-    <t>0.44(0.012)</t>
-  </si>
-  <si>
     <t>one step continuation</t>
   </si>
   <si>
@@ -614,6 +602,42 @@
   </si>
   <si>
     <t>0.34(0.009)</t>
+  </si>
+  <si>
+    <t>0.32(0.025)</t>
+  </si>
+  <si>
+    <t>0.42(0.012)</t>
+  </si>
+  <si>
+    <t>0.42(0.015)</t>
+  </si>
+  <si>
+    <t>0.16(0.025)</t>
+  </si>
+  <si>
+    <t>0.39(0.015)</t>
+  </si>
+  <si>
+    <t>0.39(0.013)</t>
+  </si>
+  <si>
+    <t>0.36(0.017)</t>
+  </si>
+  <si>
+    <t>0.43(0.015)</t>
+  </si>
+  <si>
+    <t>0.30(0.012)</t>
+  </si>
+  <si>
+    <t>0.39(0.009)</t>
+  </si>
+  <si>
+    <t>0.40(0.005)</t>
+  </si>
+  <si>
+    <t>0.31(0.006)</t>
   </si>
 </sst>
 </file>
@@ -1002,8 +1026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
+    <sheetView tabSelected="1" topLeftCell="L17" workbookViewId="0">
+      <selection activeCell="T31" sqref="T31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,16 +1093,19 @@
         <v>164</v>
       </c>
       <c r="R2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="S2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T2" t="s">
-        <v>173</v>
+        <v>171</v>
+      </c>
+      <c r="U2" t="s">
+        <v>178</v>
       </c>
       <c r="V2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1134,13 +1161,16 @@
         <v>167</v>
       </c>
       <c r="R3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="S3" t="s">
+        <v>174</v>
+      </c>
+      <c r="T3" t="s">
         <v>176</v>
       </c>
-      <c r="T3" t="s">
-        <v>178</v>
+      <c r="U3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1190,12 +1220,15 @@
         <v>165</v>
       </c>
       <c r="R4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="S4" t="s">
         <v>165</v>
       </c>
       <c r="T4" t="s">
+        <v>184</v>
+      </c>
+      <c r="U4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1240,13 +1273,16 @@
         <v>159</v>
       </c>
       <c r="Q5" t="s">
+        <v>168</v>
+      </c>
+      <c r="R5" t="s">
+        <v>190</v>
+      </c>
+      <c r="S5" t="s">
         <v>169</v>
       </c>
-      <c r="R5" t="s">
-        <v>194</v>
-      </c>
-      <c r="S5" t="s">
-        <v>171</v>
+      <c r="U5" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1293,13 +1329,16 @@
         <v>166</v>
       </c>
       <c r="R6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="S6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T6" t="s">
         <v>166</v>
+      </c>
+      <c r="U6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1472,19 +1511,19 @@
         <v>164</v>
       </c>
       <c r="R21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="S21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="U21" t="s">
+        <v>178</v>
+      </c>
+      <c r="V21" t="s">
         <v>180</v>
-      </c>
-      <c r="V21" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -1492,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
@@ -1520,19 +1559,19 @@
         <v>162</v>
       </c>
       <c r="Q22" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="R22" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="S22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T22" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="U22" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -1566,19 +1605,19 @@
         <v>85</v>
       </c>
       <c r="Q23" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="R23" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="S23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U23" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -1612,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="Q24" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="R24" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="S24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T24" t="s">
         <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -1632,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>48</v>
@@ -1660,19 +1699,19 @@
         <v>163</v>
       </c>
       <c r="Q25" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="R25" t="s">
+        <v>183</v>
+      </c>
+      <c r="S25" t="s">
+        <v>173</v>
+      </c>
+      <c r="T25" t="s">
         <v>187</v>
       </c>
-      <c r="S25" t="s">
-        <v>175</v>
-      </c>
-      <c r="T25" t="s">
-        <v>191</v>
-      </c>
       <c r="U25" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2117,13 +2156,13 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="S58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -2145,6 +2184,9 @@
       <c r="N59" t="s">
         <v>128</v>
       </c>
+      <c r="P59" t="s">
+        <v>110</v>
+      </c>
       <c r="S59" t="s">
         <v>137</v>
       </c>
@@ -2168,6 +2210,9 @@
       <c r="N60" t="s">
         <v>117</v>
       </c>
+      <c r="P60" t="s">
+        <v>205</v>
+      </c>
       <c r="S60" t="s">
         <v>151</v>
       </c>
@@ -2191,6 +2236,9 @@
       <c r="N61" t="s">
         <v>150</v>
       </c>
+      <c r="P61" t="s">
+        <v>206</v>
+      </c>
       <c r="S61" t="s">
         <v>147</v>
       </c>
@@ -2214,6 +2262,9 @@
       <c r="N62" t="s">
         <v>156</v>
       </c>
+      <c r="P62" t="s">
+        <v>207</v>
+      </c>
       <c r="S62" t="s">
         <v>152</v>
       </c>
@@ -2270,10 +2321,10 @@
         <v>158</v>
       </c>
       <c r="S65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -2345,7 +2396,7 @@
         <v>155</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="S68" t="s">
         <v>150</v>
@@ -2371,7 +2422,7 @@
         <v>157</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="S69" t="s">
         <v>138</v>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="5940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="5940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="207">
   <si>
     <t>random</t>
   </si>
@@ -482,9 +482,6 @@
   </si>
   <si>
     <t>0.44(0.07)</t>
-  </si>
-  <si>
-    <t>0.49(0.008)</t>
   </si>
   <si>
     <t>0.37(0.008)</t>
@@ -1026,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L17" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,25 +1084,25 @@
         <v>148</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="S2" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" t="s">
         <v>170</v>
       </c>
-      <c r="T2" t="s">
-        <v>171</v>
-      </c>
       <c r="U2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1155,22 +1152,22 @@
         <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="S3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1217,19 +1214,19 @@
         <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="R4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="S4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="T4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1270,19 +1267,19 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q5" t="s">
+        <v>167</v>
+      </c>
+      <c r="R5" t="s">
+        <v>189</v>
+      </c>
+      <c r="S5" t="s">
         <v>168</v>
       </c>
-      <c r="R5" t="s">
-        <v>190</v>
-      </c>
-      <c r="S5" t="s">
-        <v>169</v>
-      </c>
       <c r="U5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1323,22 +1320,22 @@
         <v>154</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1434,6 +1431,9 @@
       <c r="J16" t="s">
         <v>41</v>
       </c>
+      <c r="P16" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1463,6 +1463,9 @@
       <c r="J17" t="s">
         <v>104</v>
       </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1505,25 +1508,25 @@
         <v>148</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="S21" t="s">
+        <v>169</v>
+      </c>
+      <c r="T21" t="s">
         <v>170</v>
       </c>
-      <c r="T21" t="s">
-        <v>171</v>
-      </c>
       <c r="U21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -1531,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
@@ -1556,22 +1559,22 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R22" t="s">
+        <v>184</v>
+      </c>
+      <c r="S22" t="s">
+        <v>174</v>
+      </c>
+      <c r="T22" t="s">
         <v>185</v>
       </c>
-      <c r="S22" t="s">
-        <v>175</v>
-      </c>
-      <c r="T22" t="s">
-        <v>186</v>
-      </c>
       <c r="U22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -1605,19 +1608,19 @@
         <v>85</v>
       </c>
       <c r="Q23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="R23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -1651,19 +1654,19 @@
         <v>8</v>
       </c>
       <c r="Q24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T24" t="s">
         <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -1671,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>48</v>
@@ -1696,22 +1699,22 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q25" t="s">
+        <v>171</v>
+      </c>
+      <c r="R25" t="s">
+        <v>182</v>
+      </c>
+      <c r="S25" t="s">
         <v>172</v>
       </c>
-      <c r="R25" t="s">
-        <v>183</v>
-      </c>
-      <c r="S25" t="s">
-        <v>173</v>
-      </c>
       <c r="T25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -2156,13 +2159,13 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S58" t="s">
+        <v>169</v>
+      </c>
+      <c r="T58" t="s">
         <v>170</v>
-      </c>
-      <c r="T58" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.25">
@@ -2181,9 +2184,6 @@
       <c r="H59" t="s">
         <v>110</v>
       </c>
-      <c r="N59" t="s">
-        <v>128</v>
-      </c>
       <c r="P59" t="s">
         <v>110</v>
       </c>
@@ -2207,11 +2207,8 @@
       <c r="D60" t="s">
         <v>136</v>
       </c>
-      <c r="N60" t="s">
-        <v>117</v>
-      </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S60" t="s">
         <v>151</v>
@@ -2233,11 +2230,8 @@
       <c r="D61" t="s">
         <v>130</v>
       </c>
-      <c r="N61" t="s">
-        <v>150</v>
-      </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S61" t="s">
         <v>147</v>
@@ -2259,11 +2253,8 @@
       <c r="D62" t="s">
         <v>124</v>
       </c>
-      <c r="N62" t="s">
-        <v>156</v>
-      </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S62" t="s">
         <v>152</v>
@@ -2318,13 +2309,13 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S65" t="s">
+        <v>169</v>
+      </c>
+      <c r="T65" t="s">
         <v>170</v>
-      </c>
-      <c r="T65" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -2396,7 +2387,7 @@
         <v>155</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S68" t="s">
         <v>150</v>
@@ -2419,10 +2410,10 @@
         <v>114</v>
       </c>
       <c r="N69" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S69" t="s">
         <v>138</v>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="208">
   <si>
     <t>random</t>
   </si>
@@ -403,18 +403,12 @@
     <t>0.48(0.007)</t>
   </si>
   <si>
-    <t>0.08(0.012)</t>
-  </si>
-  <si>
     <t>0.59(0.006)</t>
   </si>
   <si>
     <t>0.50(0.005)</t>
   </si>
   <si>
-    <t>0.54(0.006)</t>
-  </si>
-  <si>
     <t>0.38(0.008)</t>
   </si>
   <si>
@@ -457,9 +451,6 @@
     <t>0.40(0.009)</t>
   </si>
   <si>
-    <t>0.56(0.007)</t>
-  </si>
-  <si>
     <t>projection combo</t>
   </si>
   <si>
@@ -469,12 +460,6 @@
     <t>0.44(0.007)</t>
   </si>
   <si>
-    <t>0.49(0.006)</t>
-  </si>
-  <si>
-    <t>0.57(0.008)</t>
-  </si>
-  <si>
     <t>045(0.008)</t>
   </si>
   <si>
@@ -635,6 +620,24 @@
   </si>
   <si>
     <t>0.31(0.006)</t>
+  </si>
+  <si>
+    <t>mb one step new</t>
+  </si>
+  <si>
+    <t>0.024(0.003)</t>
+  </si>
+  <si>
+    <t>0.39(0.017)</t>
+  </si>
+  <si>
+    <t>0.42(0.013)</t>
+  </si>
+  <si>
+    <t>mb one step new model</t>
+  </si>
+  <si>
+    <t>0.022(0.001)</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:W69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
+      <selection activeCell="W63" sqref="W63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,28 +1084,28 @@
         <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="S2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="U2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="V2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1149,25 +1152,25 @@
         <v>86</v>
       </c>
       <c r="O3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="R3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="S3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="T3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="U3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1214,19 +1217,19 @@
         <v>61</v>
       </c>
       <c r="Q4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="R4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="S4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="T4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="U4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -1267,19 +1270,19 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="R5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="S5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="U5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -1317,25 +1320,25 @@
         <v>87</v>
       </c>
       <c r="O6" t="s">
+        <v>149</v>
+      </c>
+      <c r="P6" t="s">
         <v>154</v>
       </c>
-      <c r="P6" t="s">
-        <v>159</v>
-      </c>
       <c r="Q6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="R6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="T6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="U6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -1432,10 +1435,10 @@
         <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1467,12 +1470,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1505,36 +1508,39 @@
       </c>
       <c r="L21" s="3"/>
       <c r="O21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q21" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="R21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="S21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T21" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="U21" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="V21" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="W21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>42</v>
@@ -1559,25 +1565,28 @@
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q22" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="R22" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S22" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="T22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="U22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="W22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1608,22 +1617,25 @@
         <v>85</v>
       </c>
       <c r="Q23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="R23" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="S23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="T23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="U23" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="W23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1654,27 +1666,30 @@
         <v>8</v>
       </c>
       <c r="Q24" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="R24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S24" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="T24" t="s">
         <v>63</v>
       </c>
       <c r="U24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="W24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>48</v>
@@ -1699,30 +1714,33 @@
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="Q25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="R25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="S25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="T25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="U25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="W25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +1775,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1768,7 +1786,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -1931,7 +1949,7 @@
         <v>84</v>
       </c>
       <c r="O44" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -1996,12 +2014,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2062,7 +2080,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.5</v>
       </c>
@@ -2079,7 +2097,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.75</v>
       </c>
@@ -2096,7 +2114,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2113,12 +2131,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -2159,21 +2177,24 @@
         <v>84</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="S58" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T58" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="W58" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" t="s">
         <v>125</v>
@@ -2187,65 +2208,56 @@
       <c r="P59" t="s">
         <v>110</v>
       </c>
-      <c r="S59" t="s">
-        <v>137</v>
-      </c>
-      <c r="T59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W59" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.5</v>
       </c>
       <c r="B60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60" t="s">
         <v>127</v>
       </c>
       <c r="D60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
-      </c>
-      <c r="S60" t="s">
-        <v>151</v>
-      </c>
-      <c r="T60" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="W60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.75</v>
       </c>
       <c r="B61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
-      </c>
-      <c r="S61" t="s">
+        <v>200</v>
+      </c>
+      <c r="W61" t="s">
         <v>147</v>
       </c>
-      <c r="T61" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
       <c r="B62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
         <v>126</v>
@@ -2254,16 +2266,13 @@
         <v>124</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
-      </c>
-      <c r="S62" t="s">
-        <v>152</v>
-      </c>
-      <c r="T62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+      <c r="W62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
@@ -2309,13 +2318,13 @@
         <v>84</v>
       </c>
       <c r="P65" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="S65" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="T65" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
@@ -2323,13 +2332,13 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" t="s">
         <v>131</v>
-      </c>
-      <c r="D66" t="s">
-        <v>133</v>
       </c>
       <c r="N66" t="s">
         <v>106</v>
@@ -2338,10 +2347,10 @@
         <v>21</v>
       </c>
       <c r="S66" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
@@ -2375,25 +2384,25 @@
         <v>0.75</v>
       </c>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N68" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="T68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
@@ -2401,25 +2410,25 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D69" t="s">
         <v>114</v>
       </c>
       <c r="N69" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P69" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="S69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="220">
   <si>
     <t>random</t>
   </si>
@@ -638,6 +638,42 @@
   </si>
   <si>
     <t>0.022(0.001)</t>
+  </si>
+  <si>
+    <t>0.41(0.010)</t>
+  </si>
+  <si>
+    <t>0.39(0.005)</t>
+  </si>
+  <si>
+    <t>0.29(0.025)</t>
+  </si>
+  <si>
+    <t>ps new</t>
+  </si>
+  <si>
+    <t>0.33(0.010)</t>
+  </si>
+  <si>
+    <t>0.38(0.009)</t>
+  </si>
+  <si>
+    <t>0.38(0.007)</t>
+  </si>
+  <si>
+    <t>0.33(0.007)</t>
+  </si>
+  <si>
+    <t>0.12(0.016)</t>
+  </si>
+  <si>
+    <t>0.34(0.008)</t>
+  </si>
+  <si>
+    <t>0.40(0.007)</t>
+  </si>
+  <si>
+    <t>0.39(0.006)</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G49" workbookViewId="0">
-      <selection activeCell="W63" sqref="W63"/>
+    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1474,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1470,12 +1506,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1534,8 +1570,11 @@
       <c r="W21" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1586,7 +1625,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1635,7 +1674,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1684,7 +1723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1735,12 +1774,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1775,7 +1814,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1786,7 +1825,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -2205,8 +2244,17 @@
       <c r="H59" t="s">
         <v>110</v>
       </c>
+      <c r="M59" t="s">
+        <v>210</v>
+      </c>
       <c r="P59" t="s">
         <v>110</v>
+      </c>
+      <c r="S59" t="s">
+        <v>212</v>
+      </c>
+      <c r="T59" t="s">
+        <v>216</v>
       </c>
       <c r="W59" t="s">
         <v>207</v>
@@ -2225,8 +2273,23 @@
       <c r="D60" t="s">
         <v>134</v>
       </c>
+      <c r="H60" t="s">
+        <v>208</v>
+      </c>
+      <c r="M60" t="s">
+        <v>131</v>
+      </c>
+      <c r="N60" t="s">
+        <v>151</v>
+      </c>
       <c r="P60" t="s">
         <v>199</v>
+      </c>
+      <c r="S60" t="s">
+        <v>213</v>
+      </c>
+      <c r="T60" t="s">
+        <v>218</v>
       </c>
       <c r="W60" t="s">
         <v>185</v>
@@ -2245,8 +2308,17 @@
       <c r="D61" t="s">
         <v>129</v>
       </c>
+      <c r="M61" t="s">
+        <v>209</v>
+      </c>
       <c r="P61" t="s">
         <v>200</v>
+      </c>
+      <c r="S61" t="s">
+        <v>214</v>
+      </c>
+      <c r="T61" t="s">
+        <v>219</v>
       </c>
       <c r="W61" t="s">
         <v>147</v>
@@ -2267,6 +2339,12 @@
       </c>
       <c r="P62" t="s">
         <v>201</v>
+      </c>
+      <c r="S62" t="s">
+        <v>215</v>
+      </c>
+      <c r="T62" t="s">
+        <v>217</v>
       </c>
       <c r="W62" t="s">
         <v>184</v>

--- a/analysis/results-summary.xlsx
+++ b/analysis/results-summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="229">
   <si>
     <t>random</t>
   </si>
@@ -649,9 +649,6 @@
     <t>0.29(0.025)</t>
   </si>
   <si>
-    <t>ps new</t>
-  </si>
-  <si>
     <t>0.33(0.010)</t>
   </si>
   <si>
@@ -674,6 +671,36 @@
   </si>
   <si>
     <t>0.39(0.006)</t>
+  </si>
+  <si>
+    <t>random new</t>
+  </si>
+  <si>
+    <t>greedy new</t>
+  </si>
+  <si>
+    <t>0.54(0.010)</t>
+  </si>
+  <si>
+    <t>0.50(0.011)</t>
+  </si>
+  <si>
+    <t>0.49(0.013)</t>
+  </si>
+  <si>
+    <t>0.43(0.010)</t>
+  </si>
+  <si>
+    <t>0.51(0.006)</t>
+  </si>
+  <si>
+    <t>0.46(0.008)</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>0.39(0.008)</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62"/>
+    <sheetView tabSelected="1" topLeftCell="G46" workbookViewId="0">
+      <selection activeCell="Y67" sqref="Y67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1501,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -1506,12 +1533,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1571,10 +1598,13 @@
         <v>202</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1624,8 +1654,14 @@
       <c r="W22" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.5</v>
       </c>
@@ -1673,8 +1709,14 @@
       <c r="W23" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1722,8 +1764,14 @@
       <c r="W24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1773,13 +1821,19 @@
       <c r="W25" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1868,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1825,7 +1879,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.5</v>
       </c>
@@ -2053,12 +2107,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -2099,7 +2153,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0</v>
       </c>
@@ -2119,7 +2173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.5</v>
       </c>
@@ -2136,7 +2190,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.75</v>
       </c>
@@ -2153,7 +2207,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2170,12 +2224,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>0</v>
       </c>
@@ -2227,8 +2281,14 @@
       <c r="W58" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2251,16 +2311,22 @@
         <v>110</v>
       </c>
       <c r="S59" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="W59" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X59" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.5</v>
       </c>
@@ -2286,16 +2352,22 @@
         <v>199</v>
       </c>
       <c r="S60" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="W60" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.75</v>
       </c>
@@ -2315,16 +2387,22 @@
         <v>200</v>
       </c>
       <c r="S61" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="W61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X61" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2341,21 +2419,27 @@
         <v>201</v>
       </c>
       <c r="S62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="W62" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>0</v>
       </c>
@@ -2404,8 +2488,14 @@
       <c r="T65" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W65" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -2430,8 +2520,11 @@
       <c r="T66" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.5</v>
       </c>
@@ -2456,8 +2549,11 @@
       <c r="T67" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.75</v>
       </c>
@@ -2482,8 +2578,11 @@
       <c r="T68" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2507,6 +2606,9 @@
       </c>
       <c r="T69" t="s">
         <v>136</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
